--- a/data/trans_orig/P14B20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E36AEC-06B8-48BC-93F4-E2DE5883CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C02C8A-702B-43B5-AFFC-52A02566FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0C466B1-E45B-4EF8-806B-5DE11A4FF48D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D69EBD65-7ED7-4A69-8D10-56EE7CFF55E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="182">
   <si>
     <t>Población cuyas hemorroides le limita en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -108,9 +108,6 @@
     <t>58,74%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
     <t>68,52%</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>41,26%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
     <t>35/44</t>
   </si>
   <si>
@@ -135,7 +129,7 @@
     <t>67,25%</t>
   </si>
   <si>
-    <t>17,01%</t>
+    <t>33,02%</t>
   </si>
   <si>
     <t>39,71%</t>
@@ -147,7 +141,7 @@
     <t>32,75%</t>
   </si>
   <si>
-    <t>82,99%</t>
+    <t>66,98%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -159,16 +153,19 @@
     <t>45,64%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>16,49%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>65,77%</t>
@@ -177,16 +174,19 @@
     <t>54,36%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>83,51%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -204,19 +204,19 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
   </si>
   <si>
     <t>37,05%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>49,83%</t>
@@ -231,19 +231,19 @@
     <t>72,61%</t>
   </si>
   <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>62,95%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -252,10 +252,10 @@
     <t>35,08%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>65,41%</t>
@@ -270,163 +270,169 @@
     <t>56,76%</t>
   </si>
   <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
     <t>38,0%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>90,85%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -435,19 +441,19 @@
     <t>45,8%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -456,19 +462,19 @@
     <t>54,2%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>52,88%</t>
@@ -528,16 +534,16 @@
     <t>28,84%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>51,3%</t>
@@ -546,19 +552,19 @@
     <t>31,68%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>66,26%</t>
@@ -567,16 +573,16 @@
     <t>48,7%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,77%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
 </sst>
 </file>
@@ -988,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7F4B1-E01D-4049-ACA4-CCE274E26C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD40D3F-C6F5-4271-8294-8C9333334416}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1294,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -1312,7 +1318,7 @@
         <v>2061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -1333,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1342,13 +1348,13 @@
         <v>2061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,7 +1410,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1431,10 +1437,10 @@
         <v>2954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -1446,10 +1452,10 @@
         <v>3996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1482,13 +1488,13 @@
         <v>1946</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1497,13 +1503,13 @@
         <v>1946</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,7 +1565,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1571,7 +1577,7 @@
         <v>1132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -1586,13 +1592,13 @@
         <v>4450</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1601,13 +1607,13 @@
         <v>5581</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,7 +1628,7 @@
         <v>2174</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -1637,13 +1643,13 @@
         <v>5300</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1652,10 +1658,10 @@
         <v>7474</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>49</v>
@@ -2201,7 +2207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD96C24-1177-420D-B146-C53689514AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE7C62-22A9-44C1-AC71-2EEB4B3B0E8C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,7 +2623,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2787,10 +2793,10 @@
         <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2799,13 +2805,13 @@
         <v>2042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2814,13 +2820,13 @@
         <v>5474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2841,13 @@
         <v>4771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2850,10 +2856,10 @@
         <v>5369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2865,13 +2871,13 @@
         <v>10140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2954,13 +2960,13 @@
         <v>8658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2969,13 +2975,13 @@
         <v>8657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +2999,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -3005,13 +3011,13 @@
         <v>10245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3020,13 +3026,13 @@
         <v>19116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3100,13 @@
         <v>5288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3109,13 +3115,13 @@
         <v>3809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3124,13 +3130,13 @@
         <v>9098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3151,13 @@
         <v>4713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3160,13 +3166,13 @@
         <v>12870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3175,13 +3181,13 @@
         <v>17582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3255,13 @@
         <v>9672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3264,13 +3270,13 @@
         <v>15505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3279,13 +3285,13 @@
         <v>25177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3306,13 @@
         <v>23861</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3315,13 +3321,13 @@
         <v>30445</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3330,13 +3336,13 @@
         <v>54306</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C02C8A-702B-43B5-AFFC-52A02566FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C6A77B-B0A5-44CE-9379-F5150CCD5349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D69EBD65-7ED7-4A69-8D10-56EE7CFF55E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4169B8F4-9B1F-4751-AC3F-6DFB95752565}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,6 +108,9 @@
     <t>58,74%</t>
   </si>
   <si>
+    <t>18,67%</t>
+  </si>
+  <si>
     <t>68,52%</t>
   </si>
   <si>
@@ -117,31 +120,34 @@
     <t>41,26%</t>
   </si>
   <si>
+    <t>81,33%</t>
+  </si>
+  <si>
     <t>35/44</t>
   </si>
   <si>
     <t>60,29%</t>
   </si>
   <si>
-    <t>19,75%</t>
+    <t>19,78%</t>
   </si>
   <si>
     <t>67,25%</t>
   </si>
   <si>
-    <t>33,02%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>80,25%</t>
+    <t>80,22%</t>
   </si>
   <si>
     <t>32,75%</t>
   </si>
   <si>
-    <t>66,98%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -153,19 +159,19 @@
     <t>45,64%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>65,77%</t>
@@ -174,19 +180,19 @@
     <t>54,36%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -195,55 +201,55 @@
     <t>50,17%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
   </si>
   <si>
     <t>37,05%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
   </si>
   <si>
     <t>49,83%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>62,95%</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -252,187 +258,187 @@
     <t>35,08%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>65,41%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
+    <t>Población cuyas hemorroides le limita en 2016 (Tasa respuesta: 1,07%)</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>78,29%</t>
+    <t>77,88%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>50,18%</t>
+    <t>65,21%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>21,71%</t>
+    <t>22,12%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>34,79%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>70,83%</t>
+    <t>71,05%</t>
   </si>
   <si>
     <t>35,06%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>29,17%</t>
+    <t>28,95%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -441,19 +447,16 @@
     <t>45,8%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>54,16%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -462,127 +465,124 @@
     <t>54,2%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>45,84%</t>
   </si>
   <si>
     <t>52,88%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD40D3F-C6F5-4271-8294-8C9333334416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FD72CF-FE01-445E-88D2-759409D5BAD6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1300,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -1318,7 +1318,7 @@
         <v>2061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1348,13 +1348,13 @@
         <v>2061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1437,10 +1437,10 @@
         <v>2954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -1452,10 +1452,10 @@
         <v>3996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1488,13 +1488,13 @@
         <v>1946</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1503,13 +1503,13 @@
         <v>1946</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,7 +1565,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>1132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -1592,13 +1592,13 @@
         <v>4450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1607,13 +1607,13 @@
         <v>5581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,7 +1628,7 @@
         <v>2174</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -1643,13 +1643,13 @@
         <v>5300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1658,13 +1658,13 @@
         <v>7474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1732,13 +1732,13 @@
         <v>5175</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1747,13 +1747,13 @@
         <v>3840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1762,13 +1762,13 @@
         <v>9014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>5139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -1798,13 +1798,13 @@
         <v>10177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1813,13 +1813,13 @@
         <v>15316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1887,13 +1887,13 @@
         <v>2967</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -1902,13 +1902,13 @@
         <v>13863</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -1917,13 +1917,13 @@
         <v>16830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1938,13 @@
         <v>5491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -1953,13 +1953,13 @@
         <v>7330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -1968,13 +1968,13 @@
         <v>12821</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2042,13 @@
         <v>11262</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -2057,13 +2057,13 @@
         <v>27093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -2072,13 +2072,13 @@
         <v>38355</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2093,13 @@
         <v>14866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -2108,13 +2108,13 @@
         <v>25641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -2123,13 +2123,13 @@
         <v>40507</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE7C62-22A9-44C1-AC71-2EEB4B3B0E8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DBDF63-EB0A-4743-9714-1BA231B19ADA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2224,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2635,13 +2635,13 @@
         <v>951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2665,13 +2665,13 @@
         <v>951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,10 +2686,10 @@
         <v>4489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2716,10 +2716,10 @@
         <v>5465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2790,13 +2790,13 @@
         <v>3432</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2805,13 +2805,13 @@
         <v>2042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2820,13 +2820,13 @@
         <v>5474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2841,13 @@
         <v>4771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2856,10 +2856,10 @@
         <v>5369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2871,13 +2871,13 @@
         <v>10140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2951,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2960,13 +2960,13 @@
         <v>8658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2975,13 +2975,13 @@
         <v>8657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -3011,13 +3011,13 @@
         <v>10245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3026,13 +3026,13 @@
         <v>19116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
